--- a/biology/Botanique/Cuspidaria_(plante)/Cuspidaria_(plante).xlsx
+++ b/biology/Botanique/Cuspidaria_(plante)/Cuspidaria_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuspidaria est un genre de plantes de la famille des Bignoniaceae (Bignoniacées).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (24 August 2016)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (24 August 2016):
 C. angustidens, C. argentea, C. bracteata, C. callistegioides, C. campanulata, C. cheiranthoides, C. cinerea, C. convoluta, C. cordata, C. corymbifera, C. cratensis, C. cuspidata, C. emmonsii, C. erubescens, C. fasciculata, C. floribunda, C. fulvo-acuta, C. hibiscifolia, C. hymenaea, C. inaequalis, C. lachnaea, C. lasiantha, C. lateriflora, C. mollis, C. multiflora, C. octoptera, C. ovalis, C. pauciflora, C. populeaster, C. pterocarpa, C. puberula, C. pulchella, C. pulchra, C. ramentacea, C. sceptrum, C. schreberi, C. schumanniana, C. semipinnatifida, C. simplicifolia, C. stenocarpa, C. subcuspidata, C. subincana, C. trifoliata, C. weberbaueri
 </t>
         </is>
